--- a/data/data5.xlsx
+++ b/data/data5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6E44C-3ECE-44F9-A6DE-AB45C17C3528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CCE902-8FA6-48AF-B9DC-CA4C5EE584A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정반배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,20 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,13 +505,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -533,13 +525,10 @@
       <c r="F2" s="2">
         <v>45332</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -556,13 +545,10 @@
       <c r="F3" s="2">
         <v>45334</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -579,13 +565,10 @@
       <c r="F4" s="2">
         <v>45332</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -602,13 +585,10 @@
       <c r="F5" s="2">
         <v>45331</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -625,13 +605,10 @@
       <c r="F6" s="2">
         <v>45344</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
@@ -648,13 +625,10 @@
       <c r="F7" s="2">
         <v>45337</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>35</v>
@@ -671,13 +645,10 @@
       <c r="F8" s="2">
         <v>45339</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>40</v>
@@ -694,13 +665,10 @@
       <c r="F9" s="2">
         <v>45338</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
@@ -717,13 +685,10 @@
       <c r="F10" s="2">
         <v>45341</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>45</v>
@@ -739,9 +704,6 @@
       </c>
       <c r="F11" s="2">
         <v>45341</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -765,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -779,7 +741,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -793,7 +755,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -807,7 +769,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
